--- a/protected/modules/excel/templates/BrechasResumidoEDTemplate.xlsx
+++ b/protected/modules/excel/templates/BrechasResumidoEDTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teto\Dropbox\Proyecto SEC\temp\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
@@ -12,9 +17,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$L$9</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,16 +32,10 @@
     <t>Impreso:</t>
   </si>
   <si>
-    <t>Analisis de Brechas</t>
-  </si>
-  <si>
     <t>Fecha inicio</t>
   </si>
   <si>
     <t>Fecha Final</t>
-  </si>
-  <si>
-    <t>Cedula</t>
   </si>
   <si>
     <t>Puesto</t>
@@ -46,12 +45,6 @@
   </si>
   <si>
     <t>Evaluador</t>
-  </si>
-  <si>
-    <t>Fecha Evaluacion</t>
-  </si>
-  <si>
-    <t>Calificacion</t>
   </si>
   <si>
     <t>Proceso</t>
@@ -96,20 +89,32 @@
     <t>Fecha Registro Compromisos</t>
   </si>
   <si>
-    <t>Califacion en Competencias</t>
+    <t>Análisis de Brechas</t>
   </si>
   <si>
-    <t>Calificacion de Puntualizaciones</t>
+    <t>Cédula</t>
+  </si>
+  <si>
+    <t>Fecha Evaluación</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Calificación de Puntualizaciones</t>
+  </si>
+  <si>
+    <t>Calificación en Competencias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,22 +532,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U610"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="5" width="30.7109375" customWidth="1"/>
@@ -558,20 +563,20 @@
     <col min="16" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6">
         <f ca="1">NOW()</f>
-        <v>41915.980351851853</v>
+        <v>42021.932413773146</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:21" ht="21">
+    <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -586,9 +591,9 @@
       <c r="L2" s="8"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -603,9 +608,9 @@
       <c r="L3" s="9"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10">
         <v>41640</v>
@@ -619,9 +624,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10">
         <v>41640</v>
@@ -637,7 +642,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -651,72 +656,72 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="38.25">
+    <row r="7" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="R7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="S7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="U7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -739,7 +744,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -762,7 +767,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -785,7 +790,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -808,7 +813,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -831,7 +836,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -854,7 +859,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -877,7 +882,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -900,7 +905,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -923,7 +928,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -946,7 +951,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -969,7 +974,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -992,7 +997,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1015,7 +1020,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1038,7 +1043,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1061,7 +1066,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1084,7 +1089,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1107,7 +1112,7 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1130,7 +1135,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1153,7 +1158,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1176,7 +1181,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1199,7 +1204,7 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1222,7 +1227,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1245,7 +1250,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1268,7 +1273,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1291,7 +1296,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1314,7 +1319,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1337,7 +1342,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1360,7 +1365,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1383,7 +1388,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1406,7 +1411,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1429,7 +1434,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1452,7 +1457,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1475,7 +1480,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1498,7 +1503,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1521,7 +1526,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1544,7 +1549,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1567,7 +1572,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1590,7 +1595,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1613,7 +1618,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1636,7 +1641,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1659,7 +1664,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -1682,7 +1687,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1705,7 +1710,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1728,7 +1733,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1751,7 +1756,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1774,7 +1779,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1797,7 +1802,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1820,7 +1825,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1843,7 +1848,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1866,7 +1871,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1889,7 +1894,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1912,7 +1917,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1935,7 +1940,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1958,7 +1963,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1981,7 +1986,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -2004,7 +2009,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="12"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2027,7 +2032,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2050,7 +2055,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="12"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2073,7 +2078,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2096,7 +2101,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2119,7 +2124,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2142,7 +2147,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -2165,7 +2170,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -2188,7 +2193,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="12"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2211,7 +2216,7 @@
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -2234,7 +2239,7 @@
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2257,7 +2262,7 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -2280,7 +2285,7 @@
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -2303,7 +2308,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -2326,7 +2331,7 @@
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2349,7 +2354,7 @@
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -2372,7 +2377,7 @@
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -2395,7 +2400,7 @@
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -2418,7 +2423,7 @@
       <c r="T81" s="12"/>
       <c r="U81" s="12"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -2441,7 +2446,7 @@
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2464,7 +2469,7 @@
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -2487,7 +2492,7 @@
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -2510,7 +2515,7 @@
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -2533,7 +2538,7 @@
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -2556,7 +2561,7 @@
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -2579,7 +2584,7 @@
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -2602,7 +2607,7 @@
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -2625,7 +2630,7 @@
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -2648,7 +2653,7 @@
       <c r="T91" s="12"/>
       <c r="U91" s="12"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -2671,7 +2676,7 @@
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -2694,7 +2699,7 @@
       <c r="T93" s="12"/>
       <c r="U93" s="12"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -2717,7 +2722,7 @@
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -2740,7 +2745,7 @@
       <c r="T95" s="12"/>
       <c r="U95" s="12"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -2763,7 +2768,7 @@
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -2786,7 +2791,7 @@
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -2809,7 +2814,7 @@
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -2832,7 +2837,7 @@
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -2855,7 +2860,7 @@
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -2878,7 +2883,7 @@
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -2901,7 +2906,7 @@
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -2924,7 +2929,7 @@
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -2947,7 +2952,7 @@
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -2970,7 +2975,7 @@
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -2993,7 +2998,7 @@
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -3016,7 +3021,7 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -3039,7 +3044,7 @@
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -3062,7 +3067,7 @@
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -3085,7 +3090,7 @@
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -3108,7 +3113,7 @@
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -3131,7 +3136,7 @@
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3154,7 +3159,7 @@
       <c r="T113" s="12"/>
       <c r="U113" s="12"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3177,7 +3182,7 @@
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3200,7 +3205,7 @@
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3223,7 +3228,7 @@
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -3246,7 +3251,7 @@
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -3269,7 +3274,7 @@
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -3292,7 +3297,7 @@
       <c r="T119" s="12"/>
       <c r="U119" s="12"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -3315,7 +3320,7 @@
       <c r="T120" s="12"/>
       <c r="U120" s="12"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -3338,7 +3343,7 @@
       <c r="T121" s="12"/>
       <c r="U121" s="12"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -3361,7 +3366,7 @@
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -3384,7 +3389,7 @@
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -3407,7 +3412,7 @@
       <c r="T124" s="12"/>
       <c r="U124" s="12"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -3430,7 +3435,7 @@
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -3453,7 +3458,7 @@
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -3476,7 +3481,7 @@
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -3499,7 +3504,7 @@
       <c r="T128" s="12"/>
       <c r="U128" s="12"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -3522,7 +3527,7 @@
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -3545,7 +3550,7 @@
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -3568,7 +3573,7 @@
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -3591,7 +3596,7 @@
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -3614,7 +3619,7 @@
       <c r="T133" s="12"/>
       <c r="U133" s="12"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -3637,7 +3642,7 @@
       <c r="T134" s="12"/>
       <c r="U134" s="12"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -3660,7 +3665,7 @@
       <c r="T135" s="12"/>
       <c r="U135" s="12"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -3683,7 +3688,7 @@
       <c r="T136" s="12"/>
       <c r="U136" s="12"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -3706,7 +3711,7 @@
       <c r="T137" s="12"/>
       <c r="U137" s="12"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -3729,7 +3734,7 @@
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -3752,7 +3757,7 @@
       <c r="T139" s="12"/>
       <c r="U139" s="12"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -3775,7 +3780,7 @@
       <c r="T140" s="12"/>
       <c r="U140" s="12"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -3798,7 +3803,7 @@
       <c r="T141" s="12"/>
       <c r="U141" s="12"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -3821,7 +3826,7 @@
       <c r="T142" s="12"/>
       <c r="U142" s="12"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -3844,7 +3849,7 @@
       <c r="T143" s="12"/>
       <c r="U143" s="12"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -3867,7 +3872,7 @@
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -3890,7 +3895,7 @@
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -3913,7 +3918,7 @@
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -3936,7 +3941,7 @@
       <c r="T147" s="12"/>
       <c r="U147" s="12"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -3959,7 +3964,7 @@
       <c r="T148" s="12"/>
       <c r="U148" s="12"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -3982,7 +3987,7 @@
       <c r="T149" s="12"/>
       <c r="U149" s="12"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -4005,7 +4010,7 @@
       <c r="T150" s="12"/>
       <c r="U150" s="12"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -4028,7 +4033,7 @@
       <c r="T151" s="12"/>
       <c r="U151" s="12"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -4051,7 +4056,7 @@
       <c r="T152" s="12"/>
       <c r="U152" s="12"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -4074,7 +4079,7 @@
       <c r="T153" s="12"/>
       <c r="U153" s="12"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -4097,7 +4102,7 @@
       <c r="T154" s="12"/>
       <c r="U154" s="12"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -4120,7 +4125,7 @@
       <c r="T155" s="12"/>
       <c r="U155" s="12"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -4143,7 +4148,7 @@
       <c r="T156" s="12"/>
       <c r="U156" s="12"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -4166,7 +4171,7 @@
       <c r="T157" s="12"/>
       <c r="U157" s="12"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -4189,7 +4194,7 @@
       <c r="T158" s="12"/>
       <c r="U158" s="12"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -4212,7 +4217,7 @@
       <c r="T159" s="12"/>
       <c r="U159" s="12"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -4235,7 +4240,7 @@
       <c r="T160" s="12"/>
       <c r="U160" s="12"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -4258,7 +4263,7 @@
       <c r="T161" s="12"/>
       <c r="U161" s="12"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -4281,7 +4286,7 @@
       <c r="T162" s="12"/>
       <c r="U162" s="12"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -4304,7 +4309,7 @@
       <c r="T163" s="12"/>
       <c r="U163" s="12"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -4327,7 +4332,7 @@
       <c r="T164" s="12"/>
       <c r="U164" s="12"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -4350,7 +4355,7 @@
       <c r="T165" s="12"/>
       <c r="U165" s="12"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -4373,7 +4378,7 @@
       <c r="T166" s="12"/>
       <c r="U166" s="12"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -4396,7 +4401,7 @@
       <c r="T167" s="12"/>
       <c r="U167" s="12"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -4419,7 +4424,7 @@
       <c r="T168" s="12"/>
       <c r="U168" s="12"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -4442,7 +4447,7 @@
       <c r="T169" s="12"/>
       <c r="U169" s="12"/>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -4465,7 +4470,7 @@
       <c r="T170" s="12"/>
       <c r="U170" s="12"/>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -4488,7 +4493,7 @@
       <c r="T171" s="12"/>
       <c r="U171" s="12"/>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -4511,7 +4516,7 @@
       <c r="T172" s="12"/>
       <c r="U172" s="12"/>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -4534,7 +4539,7 @@
       <c r="T173" s="12"/>
       <c r="U173" s="12"/>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -4557,7 +4562,7 @@
       <c r="T174" s="12"/>
       <c r="U174" s="12"/>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -4580,7 +4585,7 @@
       <c r="T175" s="12"/>
       <c r="U175" s="12"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -4603,7 +4608,7 @@
       <c r="T176" s="12"/>
       <c r="U176" s="12"/>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -4626,7 +4631,7 @@
       <c r="T177" s="12"/>
       <c r="U177" s="12"/>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -4649,7 +4654,7 @@
       <c r="T178" s="12"/>
       <c r="U178" s="12"/>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -4672,7 +4677,7 @@
       <c r="T179" s="12"/>
       <c r="U179" s="12"/>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -4695,7 +4700,7 @@
       <c r="T180" s="12"/>
       <c r="U180" s="12"/>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -4718,7 +4723,7 @@
       <c r="T181" s="12"/>
       <c r="U181" s="12"/>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -4741,7 +4746,7 @@
       <c r="T182" s="12"/>
       <c r="U182" s="12"/>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -4764,7 +4769,7 @@
       <c r="T183" s="12"/>
       <c r="U183" s="12"/>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -4787,7 +4792,7 @@
       <c r="T184" s="12"/>
       <c r="U184" s="12"/>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -4810,7 +4815,7 @@
       <c r="T185" s="12"/>
       <c r="U185" s="12"/>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -4833,7 +4838,7 @@
       <c r="T186" s="12"/>
       <c r="U186" s="12"/>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -4856,7 +4861,7 @@
       <c r="T187" s="12"/>
       <c r="U187" s="12"/>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -4879,7 +4884,7 @@
       <c r="T188" s="12"/>
       <c r="U188" s="12"/>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -4902,7 +4907,7 @@
       <c r="T189" s="12"/>
       <c r="U189" s="12"/>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -4925,7 +4930,7 @@
       <c r="T190" s="12"/>
       <c r="U190" s="12"/>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -4948,7 +4953,7 @@
       <c r="T191" s="12"/>
       <c r="U191" s="12"/>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -4971,7 +4976,7 @@
       <c r="T192" s="12"/>
       <c r="U192" s="12"/>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -4994,7 +4999,7 @@
       <c r="T193" s="12"/>
       <c r="U193" s="12"/>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -5017,7 +5022,7 @@
       <c r="T194" s="12"/>
       <c r="U194" s="12"/>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -5040,7 +5045,7 @@
       <c r="T195" s="12"/>
       <c r="U195" s="12"/>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -5063,7 +5068,7 @@
       <c r="T196" s="12"/>
       <c r="U196" s="12"/>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -5086,7 +5091,7 @@
       <c r="T197" s="12"/>
       <c r="U197" s="12"/>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -5109,7 +5114,7 @@
       <c r="T198" s="12"/>
       <c r="U198" s="12"/>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -5132,7 +5137,7 @@
       <c r="T199" s="12"/>
       <c r="U199" s="12"/>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -5155,7 +5160,7 @@
       <c r="T200" s="12"/>
       <c r="U200" s="12"/>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -5178,7 +5183,7 @@
       <c r="T201" s="12"/>
       <c r="U201" s="12"/>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -5201,7 +5206,7 @@
       <c r="T202" s="12"/>
       <c r="U202" s="12"/>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -5224,7 +5229,7 @@
       <c r="T203" s="12"/>
       <c r="U203" s="12"/>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -5247,7 +5252,7 @@
       <c r="T204" s="12"/>
       <c r="U204" s="12"/>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -5270,7 +5275,7 @@
       <c r="T205" s="12"/>
       <c r="U205" s="12"/>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -5293,7 +5298,7 @@
       <c r="T206" s="12"/>
       <c r="U206" s="12"/>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -5316,7 +5321,7 @@
       <c r="T207" s="12"/>
       <c r="U207" s="12"/>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -5339,7 +5344,7 @@
       <c r="T208" s="12"/>
       <c r="U208" s="12"/>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -5362,7 +5367,7 @@
       <c r="T209" s="12"/>
       <c r="U209" s="12"/>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -5385,7 +5390,7 @@
       <c r="T210" s="12"/>
       <c r="U210" s="12"/>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -5408,7 +5413,7 @@
       <c r="T211" s="12"/>
       <c r="U211" s="12"/>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -5431,7 +5436,7 @@
       <c r="T212" s="12"/>
       <c r="U212" s="12"/>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -5454,7 +5459,7 @@
       <c r="T213" s="12"/>
       <c r="U213" s="12"/>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -5477,7 +5482,7 @@
       <c r="T214" s="12"/>
       <c r="U214" s="12"/>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -5500,7 +5505,7 @@
       <c r="T215" s="12"/>
       <c r="U215" s="12"/>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -5523,7 +5528,7 @@
       <c r="T216" s="12"/>
       <c r="U216" s="12"/>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -5546,7 +5551,7 @@
       <c r="T217" s="12"/>
       <c r="U217" s="12"/>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -5569,7 +5574,7 @@
       <c r="T218" s="12"/>
       <c r="U218" s="12"/>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -5592,7 +5597,7 @@
       <c r="T219" s="12"/>
       <c r="U219" s="12"/>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -5615,7 +5620,7 @@
       <c r="T220" s="12"/>
       <c r="U220" s="12"/>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -5638,7 +5643,7 @@
       <c r="T221" s="12"/>
       <c r="U221" s="12"/>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -5661,7 +5666,7 @@
       <c r="T222" s="12"/>
       <c r="U222" s="12"/>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -5684,7 +5689,7 @@
       <c r="T223" s="12"/>
       <c r="U223" s="12"/>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -5707,7 +5712,7 @@
       <c r="T224" s="12"/>
       <c r="U224" s="12"/>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -5730,7 +5735,7 @@
       <c r="T225" s="12"/>
       <c r="U225" s="12"/>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5753,7 +5758,7 @@
       <c r="T226" s="12"/>
       <c r="U226" s="12"/>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -5776,7 +5781,7 @@
       <c r="T227" s="12"/>
       <c r="U227" s="12"/>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -5799,7 +5804,7 @@
       <c r="T228" s="12"/>
       <c r="U228" s="12"/>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -5822,7 +5827,7 @@
       <c r="T229" s="12"/>
       <c r="U229" s="12"/>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -5845,7 +5850,7 @@
       <c r="T230" s="12"/>
       <c r="U230" s="12"/>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -5868,7 +5873,7 @@
       <c r="T231" s="12"/>
       <c r="U231" s="12"/>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -5891,7 +5896,7 @@
       <c r="T232" s="12"/>
       <c r="U232" s="12"/>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -5914,7 +5919,7 @@
       <c r="T233" s="12"/>
       <c r="U233" s="12"/>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -5937,7 +5942,7 @@
       <c r="T234" s="12"/>
       <c r="U234" s="12"/>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -5960,7 +5965,7 @@
       <c r="T235" s="12"/>
       <c r="U235" s="12"/>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -5983,7 +5988,7 @@
       <c r="T236" s="12"/>
       <c r="U236" s="12"/>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -6006,7 +6011,7 @@
       <c r="T237" s="12"/>
       <c r="U237" s="12"/>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -6029,7 +6034,7 @@
       <c r="T238" s="12"/>
       <c r="U238" s="12"/>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -6052,7 +6057,7 @@
       <c r="T239" s="12"/>
       <c r="U239" s="12"/>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -6075,7 +6080,7 @@
       <c r="T240" s="12"/>
       <c r="U240" s="12"/>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -6098,7 +6103,7 @@
       <c r="T241" s="12"/>
       <c r="U241" s="12"/>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -6121,7 +6126,7 @@
       <c r="T242" s="12"/>
       <c r="U242" s="12"/>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -6144,7 +6149,7 @@
       <c r="T243" s="12"/>
       <c r="U243" s="12"/>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -6167,7 +6172,7 @@
       <c r="T244" s="12"/>
       <c r="U244" s="12"/>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -6190,7 +6195,7 @@
       <c r="T245" s="12"/>
       <c r="U245" s="12"/>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -6213,7 +6218,7 @@
       <c r="T246" s="12"/>
       <c r="U246" s="12"/>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -6236,7 +6241,7 @@
       <c r="T247" s="12"/>
       <c r="U247" s="12"/>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -6259,7 +6264,7 @@
       <c r="T248" s="12"/>
       <c r="U248" s="12"/>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -6282,7 +6287,7 @@
       <c r="T249" s="12"/>
       <c r="U249" s="12"/>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -6305,7 +6310,7 @@
       <c r="T250" s="12"/>
       <c r="U250" s="12"/>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -6328,7 +6333,7 @@
       <c r="T251" s="12"/>
       <c r="U251" s="12"/>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -6351,7 +6356,7 @@
       <c r="T252" s="12"/>
       <c r="U252" s="12"/>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -6374,7 +6379,7 @@
       <c r="T253" s="12"/>
       <c r="U253" s="12"/>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -6397,7 +6402,7 @@
       <c r="T254" s="12"/>
       <c r="U254" s="12"/>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -6420,7 +6425,7 @@
       <c r="T255" s="12"/>
       <c r="U255" s="12"/>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -6443,7 +6448,7 @@
       <c r="T256" s="12"/>
       <c r="U256" s="12"/>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -6466,7 +6471,7 @@
       <c r="T257" s="12"/>
       <c r="U257" s="12"/>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -6489,7 +6494,7 @@
       <c r="T258" s="12"/>
       <c r="U258" s="12"/>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -6512,7 +6517,7 @@
       <c r="T259" s="12"/>
       <c r="U259" s="12"/>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -6535,7 +6540,7 @@
       <c r="T260" s="12"/>
       <c r="U260" s="12"/>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -6558,7 +6563,7 @@
       <c r="T261" s="12"/>
       <c r="U261" s="12"/>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -6581,7 +6586,7 @@
       <c r="T262" s="12"/>
       <c r="U262" s="12"/>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -6604,7 +6609,7 @@
       <c r="T263" s="12"/>
       <c r="U263" s="12"/>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -6627,7 +6632,7 @@
       <c r="T264" s="12"/>
       <c r="U264" s="12"/>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -6650,7 +6655,7 @@
       <c r="T265" s="12"/>
       <c r="U265" s="12"/>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -6673,7 +6678,7 @@
       <c r="T266" s="12"/>
       <c r="U266" s="12"/>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -6696,7 +6701,7 @@
       <c r="T267" s="12"/>
       <c r="U267" s="12"/>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -6719,7 +6724,7 @@
       <c r="T268" s="12"/>
       <c r="U268" s="12"/>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -6742,7 +6747,7 @@
       <c r="T269" s="12"/>
       <c r="U269" s="12"/>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -6765,7 +6770,7 @@
       <c r="T270" s="12"/>
       <c r="U270" s="12"/>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -6788,7 +6793,7 @@
       <c r="T271" s="12"/>
       <c r="U271" s="12"/>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -6811,7 +6816,7 @@
       <c r="T272" s="12"/>
       <c r="U272" s="12"/>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -6834,7 +6839,7 @@
       <c r="T273" s="12"/>
       <c r="U273" s="12"/>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -6857,7 +6862,7 @@
       <c r="T274" s="12"/>
       <c r="U274" s="12"/>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -6880,7 +6885,7 @@
       <c r="T275" s="12"/>
       <c r="U275" s="12"/>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -6903,7 +6908,7 @@
       <c r="T276" s="12"/>
       <c r="U276" s="12"/>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -6926,7 +6931,7 @@
       <c r="T277" s="12"/>
       <c r="U277" s="12"/>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -6949,7 +6954,7 @@
       <c r="T278" s="12"/>
       <c r="U278" s="12"/>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -6972,7 +6977,7 @@
       <c r="T279" s="12"/>
       <c r="U279" s="12"/>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -6995,7 +7000,7 @@
       <c r="T280" s="12"/>
       <c r="U280" s="12"/>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -7018,7 +7023,7 @@
       <c r="T281" s="12"/>
       <c r="U281" s="12"/>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -7041,7 +7046,7 @@
       <c r="T282" s="12"/>
       <c r="U282" s="12"/>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -7064,7 +7069,7 @@
       <c r="T283" s="12"/>
       <c r="U283" s="12"/>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -7087,7 +7092,7 @@
       <c r="T284" s="12"/>
       <c r="U284" s="12"/>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -7110,7 +7115,7 @@
       <c r="T285" s="12"/>
       <c r="U285" s="12"/>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -7133,7 +7138,7 @@
       <c r="T286" s="12"/>
       <c r="U286" s="12"/>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -7156,7 +7161,7 @@
       <c r="T287" s="12"/>
       <c r="U287" s="12"/>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -7179,7 +7184,7 @@
       <c r="T288" s="12"/>
       <c r="U288" s="12"/>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -7202,7 +7207,7 @@
       <c r="T289" s="12"/>
       <c r="U289" s="12"/>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -7225,7 +7230,7 @@
       <c r="T290" s="12"/>
       <c r="U290" s="12"/>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -7248,7 +7253,7 @@
       <c r="T291" s="12"/>
       <c r="U291" s="12"/>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -7271,7 +7276,7 @@
       <c r="T292" s="12"/>
       <c r="U292" s="12"/>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -7294,7 +7299,7 @@
       <c r="T293" s="12"/>
       <c r="U293" s="12"/>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -7317,7 +7322,7 @@
       <c r="T294" s="12"/>
       <c r="U294" s="12"/>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -7340,7 +7345,7 @@
       <c r="T295" s="12"/>
       <c r="U295" s="12"/>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -7363,7 +7368,7 @@
       <c r="T296" s="12"/>
       <c r="U296" s="12"/>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -7386,7 +7391,7 @@
       <c r="T297" s="12"/>
       <c r="U297" s="12"/>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -7409,7 +7414,7 @@
       <c r="T298" s="12"/>
       <c r="U298" s="12"/>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -7432,7 +7437,7 @@
       <c r="T299" s="12"/>
       <c r="U299" s="12"/>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -7455,7 +7460,7 @@
       <c r="T300" s="12"/>
       <c r="U300" s="12"/>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -7478,7 +7483,7 @@
       <c r="T301" s="12"/>
       <c r="U301" s="12"/>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -7501,7 +7506,7 @@
       <c r="T302" s="12"/>
       <c r="U302" s="12"/>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -7524,7 +7529,7 @@
       <c r="T303" s="12"/>
       <c r="U303" s="12"/>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -7547,7 +7552,7 @@
       <c r="T304" s="12"/>
       <c r="U304" s="12"/>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -7570,7 +7575,7 @@
       <c r="T305" s="12"/>
       <c r="U305" s="12"/>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -7593,7 +7598,7 @@
       <c r="T306" s="12"/>
       <c r="U306" s="12"/>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -7616,7 +7621,7 @@
       <c r="T307" s="12"/>
       <c r="U307" s="12"/>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -7639,7 +7644,7 @@
       <c r="T308" s="12"/>
       <c r="U308" s="12"/>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -7662,7 +7667,7 @@
       <c r="T309" s="12"/>
       <c r="U309" s="12"/>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -7685,7 +7690,7 @@
       <c r="T310" s="12"/>
       <c r="U310" s="12"/>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -7708,7 +7713,7 @@
       <c r="T311" s="12"/>
       <c r="U311" s="12"/>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -7731,7 +7736,7 @@
       <c r="T312" s="12"/>
       <c r="U312" s="12"/>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -7754,7 +7759,7 @@
       <c r="T313" s="12"/>
       <c r="U313" s="12"/>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -7777,7 +7782,7 @@
       <c r="T314" s="12"/>
       <c r="U314" s="12"/>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -7800,7 +7805,7 @@
       <c r="T315" s="12"/>
       <c r="U315" s="12"/>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -7823,7 +7828,7 @@
       <c r="T316" s="12"/>
       <c r="U316" s="12"/>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -7846,7 +7851,7 @@
       <c r="T317" s="12"/>
       <c r="U317" s="12"/>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -7869,7 +7874,7 @@
       <c r="T318" s="12"/>
       <c r="U318" s="12"/>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -7892,7 +7897,7 @@
       <c r="T319" s="12"/>
       <c r="U319" s="12"/>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -7915,7 +7920,7 @@
       <c r="T320" s="12"/>
       <c r="U320" s="12"/>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -7938,7 +7943,7 @@
       <c r="T321" s="12"/>
       <c r="U321" s="12"/>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -7961,7 +7966,7 @@
       <c r="T322" s="12"/>
       <c r="U322" s="12"/>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -7984,7 +7989,7 @@
       <c r="T323" s="12"/>
       <c r="U323" s="12"/>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -8007,7 +8012,7 @@
       <c r="T324" s="12"/>
       <c r="U324" s="12"/>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -8030,7 +8035,7 @@
       <c r="T325" s="12"/>
       <c r="U325" s="12"/>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -8053,7 +8058,7 @@
       <c r="T326" s="12"/>
       <c r="U326" s="12"/>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -8076,7 +8081,7 @@
       <c r="T327" s="12"/>
       <c r="U327" s="12"/>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -8099,7 +8104,7 @@
       <c r="T328" s="12"/>
       <c r="U328" s="12"/>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -8122,7 +8127,7 @@
       <c r="T329" s="12"/>
       <c r="U329" s="12"/>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -8145,7 +8150,7 @@
       <c r="T330" s="12"/>
       <c r="U330" s="12"/>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -8168,7 +8173,7 @@
       <c r="T331" s="12"/>
       <c r="U331" s="12"/>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -8191,7 +8196,7 @@
       <c r="T332" s="12"/>
       <c r="U332" s="12"/>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -8214,7 +8219,7 @@
       <c r="T333" s="12"/>
       <c r="U333" s="12"/>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -8237,7 +8242,7 @@
       <c r="T334" s="12"/>
       <c r="U334" s="12"/>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -8260,7 +8265,7 @@
       <c r="T335" s="12"/>
       <c r="U335" s="12"/>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -8283,7 +8288,7 @@
       <c r="T336" s="12"/>
       <c r="U336" s="12"/>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -8306,7 +8311,7 @@
       <c r="T337" s="12"/>
       <c r="U337" s="12"/>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -8329,7 +8334,7 @@
       <c r="T338" s="12"/>
       <c r="U338" s="12"/>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -8352,7 +8357,7 @@
       <c r="T339" s="12"/>
       <c r="U339" s="12"/>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -8375,7 +8380,7 @@
       <c r="T340" s="12"/>
       <c r="U340" s="12"/>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -8398,7 +8403,7 @@
       <c r="T341" s="12"/>
       <c r="U341" s="12"/>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -8421,7 +8426,7 @@
       <c r="T342" s="12"/>
       <c r="U342" s="12"/>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -8444,7 +8449,7 @@
       <c r="T343" s="12"/>
       <c r="U343" s="12"/>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -8467,7 +8472,7 @@
       <c r="T344" s="12"/>
       <c r="U344" s="12"/>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -8490,7 +8495,7 @@
       <c r="T345" s="12"/>
       <c r="U345" s="12"/>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -8513,7 +8518,7 @@
       <c r="T346" s="12"/>
       <c r="U346" s="12"/>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -8536,7 +8541,7 @@
       <c r="T347" s="12"/>
       <c r="U347" s="12"/>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -8559,7 +8564,7 @@
       <c r="T348" s="12"/>
       <c r="U348" s="12"/>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -8582,7 +8587,7 @@
       <c r="T349" s="12"/>
       <c r="U349" s="12"/>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -8605,7 +8610,7 @@
       <c r="T350" s="12"/>
       <c r="U350" s="12"/>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -8628,7 +8633,7 @@
       <c r="T351" s="12"/>
       <c r="U351" s="12"/>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -8651,7 +8656,7 @@
       <c r="T352" s="12"/>
       <c r="U352" s="12"/>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -8674,7 +8679,7 @@
       <c r="T353" s="12"/>
       <c r="U353" s="12"/>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -8697,7 +8702,7 @@
       <c r="T354" s="12"/>
       <c r="U354" s="12"/>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -8720,7 +8725,7 @@
       <c r="T355" s="12"/>
       <c r="U355" s="12"/>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -8743,7 +8748,7 @@
       <c r="T356" s="12"/>
       <c r="U356" s="12"/>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -8766,7 +8771,7 @@
       <c r="T357" s="12"/>
       <c r="U357" s="12"/>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -8789,7 +8794,7 @@
       <c r="T358" s="12"/>
       <c r="U358" s="12"/>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -8812,7 +8817,7 @@
       <c r="T359" s="12"/>
       <c r="U359" s="12"/>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -8835,7 +8840,7 @@
       <c r="T360" s="12"/>
       <c r="U360" s="12"/>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -8858,7 +8863,7 @@
       <c r="T361" s="12"/>
       <c r="U361" s="12"/>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -8881,7 +8886,7 @@
       <c r="T362" s="12"/>
       <c r="U362" s="12"/>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -8904,7 +8909,7 @@
       <c r="T363" s="12"/>
       <c r="U363" s="12"/>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -8927,7 +8932,7 @@
       <c r="T364" s="12"/>
       <c r="U364" s="12"/>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -8950,7 +8955,7 @@
       <c r="T365" s="12"/>
       <c r="U365" s="12"/>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -8973,7 +8978,7 @@
       <c r="T366" s="12"/>
       <c r="U366" s="12"/>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -8996,7 +9001,7 @@
       <c r="T367" s="12"/>
       <c r="U367" s="12"/>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -9019,7 +9024,7 @@
       <c r="T368" s="12"/>
       <c r="U368" s="12"/>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -9042,7 +9047,7 @@
       <c r="T369" s="12"/>
       <c r="U369" s="12"/>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -9065,7 +9070,7 @@
       <c r="T370" s="12"/>
       <c r="U370" s="12"/>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -9088,7 +9093,7 @@
       <c r="T371" s="12"/>
       <c r="U371" s="12"/>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -9111,7 +9116,7 @@
       <c r="T372" s="12"/>
       <c r="U372" s="12"/>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -9134,7 +9139,7 @@
       <c r="T373" s="12"/>
       <c r="U373" s="12"/>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -9157,7 +9162,7 @@
       <c r="T374" s="12"/>
       <c r="U374" s="12"/>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -9180,7 +9185,7 @@
       <c r="T375" s="12"/>
       <c r="U375" s="12"/>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -9203,7 +9208,7 @@
       <c r="T376" s="12"/>
       <c r="U376" s="12"/>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -9226,7 +9231,7 @@
       <c r="T377" s="12"/>
       <c r="U377" s="12"/>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -9249,7 +9254,7 @@
       <c r="T378" s="12"/>
       <c r="U378" s="12"/>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -9272,7 +9277,7 @@
       <c r="T379" s="12"/>
       <c r="U379" s="12"/>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -9295,7 +9300,7 @@
       <c r="T380" s="12"/>
       <c r="U380" s="12"/>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -9318,7 +9323,7 @@
       <c r="T381" s="12"/>
       <c r="U381" s="12"/>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -9341,7 +9346,7 @@
       <c r="T382" s="12"/>
       <c r="U382" s="12"/>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -9364,7 +9369,7 @@
       <c r="T383" s="12"/>
       <c r="U383" s="12"/>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -9387,7 +9392,7 @@
       <c r="T384" s="12"/>
       <c r="U384" s="12"/>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -9410,7 +9415,7 @@
       <c r="T385" s="12"/>
       <c r="U385" s="12"/>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -9433,7 +9438,7 @@
       <c r="T386" s="12"/>
       <c r="U386" s="12"/>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -9456,7 +9461,7 @@
       <c r="T387" s="12"/>
       <c r="U387" s="12"/>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -9479,7 +9484,7 @@
       <c r="T388" s="12"/>
       <c r="U388" s="12"/>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -9502,7 +9507,7 @@
       <c r="T389" s="12"/>
       <c r="U389" s="12"/>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -9525,7 +9530,7 @@
       <c r="T390" s="12"/>
       <c r="U390" s="12"/>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -9548,7 +9553,7 @@
       <c r="T391" s="12"/>
       <c r="U391" s="12"/>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -9571,7 +9576,7 @@
       <c r="T392" s="12"/>
       <c r="U392" s="12"/>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -9594,7 +9599,7 @@
       <c r="T393" s="12"/>
       <c r="U393" s="12"/>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -9617,7 +9622,7 @@
       <c r="T394" s="12"/>
       <c r="U394" s="12"/>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -9640,7 +9645,7 @@
       <c r="T395" s="12"/>
       <c r="U395" s="12"/>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -9663,7 +9668,7 @@
       <c r="T396" s="12"/>
       <c r="U396" s="12"/>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -9686,7 +9691,7 @@
       <c r="T397" s="12"/>
       <c r="U397" s="12"/>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -9709,7 +9714,7 @@
       <c r="T398" s="12"/>
       <c r="U398" s="12"/>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -9732,7 +9737,7 @@
       <c r="T399" s="12"/>
       <c r="U399" s="12"/>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -9755,7 +9760,7 @@
       <c r="T400" s="12"/>
       <c r="U400" s="12"/>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -9778,7 +9783,7 @@
       <c r="T401" s="12"/>
       <c r="U401" s="12"/>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -9801,7 +9806,7 @@
       <c r="T402" s="12"/>
       <c r="U402" s="12"/>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -9824,7 +9829,7 @@
       <c r="T403" s="12"/>
       <c r="U403" s="12"/>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -9847,7 +9852,7 @@
       <c r="T404" s="12"/>
       <c r="U404" s="12"/>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -9870,7 +9875,7 @@
       <c r="T405" s="12"/>
       <c r="U405" s="12"/>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -9893,7 +9898,7 @@
       <c r="T406" s="12"/>
       <c r="U406" s="12"/>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -9916,7 +9921,7 @@
       <c r="T407" s="12"/>
       <c r="U407" s="12"/>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -9939,7 +9944,7 @@
       <c r="T408" s="12"/>
       <c r="U408" s="12"/>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -9962,7 +9967,7 @@
       <c r="T409" s="12"/>
       <c r="U409" s="12"/>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -9985,7 +9990,7 @@
       <c r="T410" s="12"/>
       <c r="U410" s="12"/>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -10008,7 +10013,7 @@
       <c r="T411" s="12"/>
       <c r="U411" s="12"/>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -10031,7 +10036,7 @@
       <c r="T412" s="12"/>
       <c r="U412" s="12"/>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -10054,7 +10059,7 @@
       <c r="T413" s="12"/>
       <c r="U413" s="12"/>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -10077,7 +10082,7 @@
       <c r="T414" s="12"/>
       <c r="U414" s="12"/>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -10100,7 +10105,7 @@
       <c r="T415" s="12"/>
       <c r="U415" s="12"/>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -10123,7 +10128,7 @@
       <c r="T416" s="12"/>
       <c r="U416" s="12"/>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -10146,7 +10151,7 @@
       <c r="T417" s="12"/>
       <c r="U417" s="12"/>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -10169,7 +10174,7 @@
       <c r="T418" s="12"/>
       <c r="U418" s="12"/>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -10192,7 +10197,7 @@
       <c r="T419" s="12"/>
       <c r="U419" s="12"/>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -10215,7 +10220,7 @@
       <c r="T420" s="12"/>
       <c r="U420" s="12"/>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -10238,7 +10243,7 @@
       <c r="T421" s="12"/>
       <c r="U421" s="12"/>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -10261,7 +10266,7 @@
       <c r="T422" s="12"/>
       <c r="U422" s="12"/>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -10284,7 +10289,7 @@
       <c r="T423" s="12"/>
       <c r="U423" s="12"/>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -10307,7 +10312,7 @@
       <c r="T424" s="12"/>
       <c r="U424" s="12"/>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -10330,7 +10335,7 @@
       <c r="T425" s="12"/>
       <c r="U425" s="12"/>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -10353,7 +10358,7 @@
       <c r="T426" s="12"/>
       <c r="U426" s="12"/>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -10376,7 +10381,7 @@
       <c r="T427" s="12"/>
       <c r="U427" s="12"/>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -10399,7 +10404,7 @@
       <c r="T428" s="12"/>
       <c r="U428" s="12"/>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -10422,7 +10427,7 @@
       <c r="T429" s="12"/>
       <c r="U429" s="12"/>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -10445,7 +10450,7 @@
       <c r="T430" s="12"/>
       <c r="U430" s="12"/>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -10468,7 +10473,7 @@
       <c r="T431" s="12"/>
       <c r="U431" s="12"/>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -10491,7 +10496,7 @@
       <c r="T432" s="12"/>
       <c r="U432" s="12"/>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -10514,7 +10519,7 @@
       <c r="T433" s="12"/>
       <c r="U433" s="12"/>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -10537,7 +10542,7 @@
       <c r="T434" s="12"/>
       <c r="U434" s="12"/>
     </row>
-    <row r="435" spans="1:21">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -10560,7 +10565,7 @@
       <c r="T435" s="12"/>
       <c r="U435" s="12"/>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -10583,7 +10588,7 @@
       <c r="T436" s="12"/>
       <c r="U436" s="12"/>
     </row>
-    <row r="437" spans="1:21">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -10606,7 +10611,7 @@
       <c r="T437" s="12"/>
       <c r="U437" s="12"/>
     </row>
-    <row r="438" spans="1:21">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -10629,7 +10634,7 @@
       <c r="T438" s="12"/>
       <c r="U438" s="12"/>
     </row>
-    <row r="439" spans="1:21">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -10652,7 +10657,7 @@
       <c r="T439" s="12"/>
       <c r="U439" s="12"/>
     </row>
-    <row r="440" spans="1:21">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -10675,7 +10680,7 @@
       <c r="T440" s="12"/>
       <c r="U440" s="12"/>
     </row>
-    <row r="441" spans="1:21">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -10698,7 +10703,7 @@
       <c r="T441" s="12"/>
       <c r="U441" s="12"/>
     </row>
-    <row r="442" spans="1:21">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -10721,7 +10726,7 @@
       <c r="T442" s="12"/>
       <c r="U442" s="12"/>
     </row>
-    <row r="443" spans="1:21">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -10744,7 +10749,7 @@
       <c r="T443" s="12"/>
       <c r="U443" s="12"/>
     </row>
-    <row r="444" spans="1:21">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -10767,7 +10772,7 @@
       <c r="T444" s="12"/>
       <c r="U444" s="12"/>
     </row>
-    <row r="445" spans="1:21">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -10790,7 +10795,7 @@
       <c r="T445" s="12"/>
       <c r="U445" s="12"/>
     </row>
-    <row r="446" spans="1:21">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -10813,7 +10818,7 @@
       <c r="T446" s="12"/>
       <c r="U446" s="12"/>
     </row>
-    <row r="447" spans="1:21">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -10836,7 +10841,7 @@
       <c r="T447" s="12"/>
       <c r="U447" s="12"/>
     </row>
-    <row r="448" spans="1:21">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -10859,7 +10864,7 @@
       <c r="T448" s="12"/>
       <c r="U448" s="12"/>
     </row>
-    <row r="449" spans="1:21">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -10882,7 +10887,7 @@
       <c r="T449" s="12"/>
       <c r="U449" s="12"/>
     </row>
-    <row r="450" spans="1:21">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -10905,7 +10910,7 @@
       <c r="T450" s="12"/>
       <c r="U450" s="12"/>
     </row>
-    <row r="451" spans="1:21">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -10928,7 +10933,7 @@
       <c r="T451" s="12"/>
       <c r="U451" s="12"/>
     </row>
-    <row r="452" spans="1:21">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -10951,7 +10956,7 @@
       <c r="T452" s="12"/>
       <c r="U452" s="12"/>
     </row>
-    <row r="453" spans="1:21">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -10974,7 +10979,7 @@
       <c r="T453" s="12"/>
       <c r="U453" s="12"/>
     </row>
-    <row r="454" spans="1:21">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -10997,7 +11002,7 @@
       <c r="T454" s="12"/>
       <c r="U454" s="12"/>
     </row>
-    <row r="455" spans="1:21">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -11020,7 +11025,7 @@
       <c r="T455" s="12"/>
       <c r="U455" s="12"/>
     </row>
-    <row r="456" spans="1:21">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -11043,7 +11048,7 @@
       <c r="T456" s="12"/>
       <c r="U456" s="12"/>
     </row>
-    <row r="457" spans="1:21">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -11066,7 +11071,7 @@
       <c r="T457" s="12"/>
       <c r="U457" s="12"/>
     </row>
-    <row r="458" spans="1:21">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -11089,7 +11094,7 @@
       <c r="T458" s="12"/>
       <c r="U458" s="12"/>
     </row>
-    <row r="459" spans="1:21">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -11112,7 +11117,7 @@
       <c r="T459" s="12"/>
       <c r="U459" s="12"/>
     </row>
-    <row r="460" spans="1:21">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -11135,7 +11140,7 @@
       <c r="T460" s="12"/>
       <c r="U460" s="12"/>
     </row>
-    <row r="461" spans="1:21">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -11158,7 +11163,7 @@
       <c r="T461" s="12"/>
       <c r="U461" s="12"/>
     </row>
-    <row r="462" spans="1:21">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -11181,7 +11186,7 @@
       <c r="T462" s="12"/>
       <c r="U462" s="12"/>
     </row>
-    <row r="463" spans="1:21">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -11204,7 +11209,7 @@
       <c r="T463" s="12"/>
       <c r="U463" s="12"/>
     </row>
-    <row r="464" spans="1:21">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -11227,7 +11232,7 @@
       <c r="T464" s="12"/>
       <c r="U464" s="12"/>
     </row>
-    <row r="465" spans="1:21">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -11250,7 +11255,7 @@
       <c r="T465" s="12"/>
       <c r="U465" s="12"/>
     </row>
-    <row r="466" spans="1:21">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -11273,7 +11278,7 @@
       <c r="T466" s="12"/>
       <c r="U466" s="12"/>
     </row>
-    <row r="467" spans="1:21">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -11296,7 +11301,7 @@
       <c r="T467" s="12"/>
       <c r="U467" s="12"/>
     </row>
-    <row r="468" spans="1:21">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -11319,7 +11324,7 @@
       <c r="T468" s="12"/>
       <c r="U468" s="12"/>
     </row>
-    <row r="469" spans="1:21">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -11342,7 +11347,7 @@
       <c r="T469" s="12"/>
       <c r="U469" s="12"/>
     </row>
-    <row r="470" spans="1:21">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -11365,7 +11370,7 @@
       <c r="T470" s="12"/>
       <c r="U470" s="12"/>
     </row>
-    <row r="471" spans="1:21">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -11388,7 +11393,7 @@
       <c r="T471" s="12"/>
       <c r="U471" s="12"/>
     </row>
-    <row r="472" spans="1:21">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -11411,7 +11416,7 @@
       <c r="T472" s="12"/>
       <c r="U472" s="12"/>
     </row>
-    <row r="473" spans="1:21">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -11434,7 +11439,7 @@
       <c r="T473" s="12"/>
       <c r="U473" s="12"/>
     </row>
-    <row r="474" spans="1:21">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -11457,7 +11462,7 @@
       <c r="T474" s="12"/>
       <c r="U474" s="12"/>
     </row>
-    <row r="475" spans="1:21">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -11480,7 +11485,7 @@
       <c r="T475" s="12"/>
       <c r="U475" s="12"/>
     </row>
-    <row r="476" spans="1:21">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -11503,7 +11508,7 @@
       <c r="T476" s="12"/>
       <c r="U476" s="12"/>
     </row>
-    <row r="477" spans="1:21">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -11526,7 +11531,7 @@
       <c r="T477" s="12"/>
       <c r="U477" s="12"/>
     </row>
-    <row r="478" spans="1:21">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -11549,7 +11554,7 @@
       <c r="T478" s="12"/>
       <c r="U478" s="12"/>
     </row>
-    <row r="479" spans="1:21">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -11572,7 +11577,7 @@
       <c r="T479" s="12"/>
       <c r="U479" s="12"/>
     </row>
-    <row r="480" spans="1:21">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -11595,7 +11600,7 @@
       <c r="T480" s="12"/>
       <c r="U480" s="12"/>
     </row>
-    <row r="481" spans="1:21">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -11618,7 +11623,7 @@
       <c r="T481" s="12"/>
       <c r="U481" s="12"/>
     </row>
-    <row r="482" spans="1:21">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -11641,7 +11646,7 @@
       <c r="T482" s="12"/>
       <c r="U482" s="12"/>
     </row>
-    <row r="483" spans="1:21">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -11664,7 +11669,7 @@
       <c r="T483" s="12"/>
       <c r="U483" s="12"/>
     </row>
-    <row r="484" spans="1:21">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -11687,7 +11692,7 @@
       <c r="T484" s="12"/>
       <c r="U484" s="12"/>
     </row>
-    <row r="485" spans="1:21">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -11710,7 +11715,7 @@
       <c r="T485" s="12"/>
       <c r="U485" s="12"/>
     </row>
-    <row r="486" spans="1:21">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -11733,7 +11738,7 @@
       <c r="T486" s="12"/>
       <c r="U486" s="12"/>
     </row>
-    <row r="487" spans="1:21">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -11756,7 +11761,7 @@
       <c r="T487" s="12"/>
       <c r="U487" s="12"/>
     </row>
-    <row r="488" spans="1:21">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -11779,7 +11784,7 @@
       <c r="T488" s="12"/>
       <c r="U488" s="12"/>
     </row>
-    <row r="489" spans="1:21">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -11802,7 +11807,7 @@
       <c r="T489" s="12"/>
       <c r="U489" s="12"/>
     </row>
-    <row r="490" spans="1:21">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -11825,7 +11830,7 @@
       <c r="T490" s="12"/>
       <c r="U490" s="12"/>
     </row>
-    <row r="491" spans="1:21">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -11848,7 +11853,7 @@
       <c r="T491" s="12"/>
       <c r="U491" s="12"/>
     </row>
-    <row r="492" spans="1:21">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -11871,7 +11876,7 @@
       <c r="T492" s="12"/>
       <c r="U492" s="12"/>
     </row>
-    <row r="493" spans="1:21">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -11894,7 +11899,7 @@
       <c r="T493" s="12"/>
       <c r="U493" s="12"/>
     </row>
-    <row r="494" spans="1:21">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -11917,7 +11922,7 @@
       <c r="T494" s="12"/>
       <c r="U494" s="12"/>
     </row>
-    <row r="495" spans="1:21">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -11940,7 +11945,7 @@
       <c r="T495" s="12"/>
       <c r="U495" s="12"/>
     </row>
-    <row r="496" spans="1:21">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -11963,7 +11968,7 @@
       <c r="T496" s="12"/>
       <c r="U496" s="12"/>
     </row>
-    <row r="497" spans="1:21">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -11986,7 +11991,7 @@
       <c r="T497" s="12"/>
       <c r="U497" s="12"/>
     </row>
-    <row r="498" spans="1:21">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -12009,7 +12014,7 @@
       <c r="T498" s="12"/>
       <c r="U498" s="12"/>
     </row>
-    <row r="499" spans="1:21">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -12032,7 +12037,7 @@
       <c r="T499" s="12"/>
       <c r="U499" s="12"/>
     </row>
-    <row r="500" spans="1:21">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -12055,7 +12060,7 @@
       <c r="T500" s="12"/>
       <c r="U500" s="12"/>
     </row>
-    <row r="501" spans="1:21">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -12078,7 +12083,7 @@
       <c r="T501" s="12"/>
       <c r="U501" s="12"/>
     </row>
-    <row r="502" spans="1:21">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -12101,7 +12106,7 @@
       <c r="T502" s="12"/>
       <c r="U502" s="12"/>
     </row>
-    <row r="503" spans="1:21">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -12124,7 +12129,7 @@
       <c r="T503" s="12"/>
       <c r="U503" s="12"/>
     </row>
-    <row r="504" spans="1:21">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -12147,7 +12152,7 @@
       <c r="T504" s="12"/>
       <c r="U504" s="12"/>
     </row>
-    <row r="505" spans="1:21">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -12170,7 +12175,7 @@
       <c r="T505" s="12"/>
       <c r="U505" s="12"/>
     </row>
-    <row r="506" spans="1:21">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -12193,7 +12198,7 @@
       <c r="T506" s="12"/>
       <c r="U506" s="12"/>
     </row>
-    <row r="507" spans="1:21">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -12216,7 +12221,7 @@
       <c r="T507" s="12"/>
       <c r="U507" s="12"/>
     </row>
-    <row r="508" spans="1:21">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -12239,7 +12244,7 @@
       <c r="T508" s="12"/>
       <c r="U508" s="12"/>
     </row>
-    <row r="509" spans="1:21">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -12262,7 +12267,7 @@
       <c r="T509" s="12"/>
       <c r="U509" s="12"/>
     </row>
-    <row r="510" spans="1:21">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -12285,7 +12290,7 @@
       <c r="T510" s="12"/>
       <c r="U510" s="12"/>
     </row>
-    <row r="511" spans="1:21">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -12308,7 +12313,7 @@
       <c r="T511" s="12"/>
       <c r="U511" s="12"/>
     </row>
-    <row r="512" spans="1:21">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -12331,7 +12336,7 @@
       <c r="T512" s="12"/>
       <c r="U512" s="12"/>
     </row>
-    <row r="513" spans="1:21">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -12354,7 +12359,7 @@
       <c r="T513" s="12"/>
       <c r="U513" s="12"/>
     </row>
-    <row r="514" spans="1:21">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -12377,7 +12382,7 @@
       <c r="T514" s="12"/>
       <c r="U514" s="12"/>
     </row>
-    <row r="515" spans="1:21">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -12400,7 +12405,7 @@
       <c r="T515" s="12"/>
       <c r="U515" s="12"/>
     </row>
-    <row r="516" spans="1:21">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -12423,7 +12428,7 @@
       <c r="T516" s="12"/>
       <c r="U516" s="12"/>
     </row>
-    <row r="517" spans="1:21">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -12446,7 +12451,7 @@
       <c r="T517" s="12"/>
       <c r="U517" s="12"/>
     </row>
-    <row r="518" spans="1:21">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -12469,7 +12474,7 @@
       <c r="T518" s="12"/>
       <c r="U518" s="12"/>
     </row>
-    <row r="519" spans="1:21">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -12492,7 +12497,7 @@
       <c r="T519" s="12"/>
       <c r="U519" s="12"/>
     </row>
-    <row r="520" spans="1:21">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -12515,7 +12520,7 @@
       <c r="T520" s="12"/>
       <c r="U520" s="12"/>
     </row>
-    <row r="521" spans="1:21">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -12538,7 +12543,7 @@
       <c r="T521" s="12"/>
       <c r="U521" s="12"/>
     </row>
-    <row r="522" spans="1:21">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -12561,7 +12566,7 @@
       <c r="T522" s="12"/>
       <c r="U522" s="12"/>
     </row>
-    <row r="523" spans="1:21">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -12584,7 +12589,7 @@
       <c r="T523" s="12"/>
       <c r="U523" s="12"/>
     </row>
-    <row r="524" spans="1:21">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -12607,7 +12612,7 @@
       <c r="T524" s="12"/>
       <c r="U524" s="12"/>
     </row>
-    <row r="525" spans="1:21">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -12630,7 +12635,7 @@
       <c r="T525" s="12"/>
       <c r="U525" s="12"/>
     </row>
-    <row r="526" spans="1:21">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -12653,7 +12658,7 @@
       <c r="T526" s="12"/>
       <c r="U526" s="12"/>
     </row>
-    <row r="527" spans="1:21">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -12676,7 +12681,7 @@
       <c r="T527" s="12"/>
       <c r="U527" s="12"/>
     </row>
-    <row r="528" spans="1:21">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -12699,7 +12704,7 @@
       <c r="T528" s="12"/>
       <c r="U528" s="12"/>
     </row>
-    <row r="529" spans="1:21">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -12722,7 +12727,7 @@
       <c r="T529" s="12"/>
       <c r="U529" s="12"/>
     </row>
-    <row r="530" spans="1:21">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -12745,7 +12750,7 @@
       <c r="T530" s="12"/>
       <c r="U530" s="12"/>
     </row>
-    <row r="531" spans="1:21">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -12768,7 +12773,7 @@
       <c r="T531" s="12"/>
       <c r="U531" s="12"/>
     </row>
-    <row r="532" spans="1:21">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -12791,7 +12796,7 @@
       <c r="T532" s="12"/>
       <c r="U532" s="12"/>
     </row>
-    <row r="533" spans="1:21">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -12814,7 +12819,7 @@
       <c r="T533" s="12"/>
       <c r="U533" s="12"/>
     </row>
-    <row r="534" spans="1:21">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -12837,7 +12842,7 @@
       <c r="T534" s="12"/>
       <c r="U534" s="12"/>
     </row>
-    <row r="535" spans="1:21">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -12860,7 +12865,7 @@
       <c r="T535" s="12"/>
       <c r="U535" s="12"/>
     </row>
-    <row r="536" spans="1:21">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -12883,7 +12888,7 @@
       <c r="T536" s="12"/>
       <c r="U536" s="12"/>
     </row>
-    <row r="537" spans="1:21">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -12906,7 +12911,7 @@
       <c r="T537" s="12"/>
       <c r="U537" s="12"/>
     </row>
-    <row r="538" spans="1:21">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -12929,7 +12934,7 @@
       <c r="T538" s="12"/>
       <c r="U538" s="12"/>
     </row>
-    <row r="539" spans="1:21">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -12952,7 +12957,7 @@
       <c r="T539" s="12"/>
       <c r="U539" s="12"/>
     </row>
-    <row r="540" spans="1:21">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -12975,7 +12980,7 @@
       <c r="T540" s="12"/>
       <c r="U540" s="12"/>
     </row>
-    <row r="541" spans="1:21">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -12998,7 +13003,7 @@
       <c r="T541" s="12"/>
       <c r="U541" s="12"/>
     </row>
-    <row r="542" spans="1:21">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -13021,7 +13026,7 @@
       <c r="T542" s="12"/>
       <c r="U542" s="12"/>
     </row>
-    <row r="543" spans="1:21">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -13044,7 +13049,7 @@
       <c r="T543" s="12"/>
       <c r="U543" s="12"/>
     </row>
-    <row r="544" spans="1:21">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -13067,7 +13072,7 @@
       <c r="T544" s="12"/>
       <c r="U544" s="12"/>
     </row>
-    <row r="545" spans="1:21">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -13090,7 +13095,7 @@
       <c r="T545" s="12"/>
       <c r="U545" s="12"/>
     </row>
-    <row r="546" spans="1:21">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -13113,7 +13118,7 @@
       <c r="T546" s="12"/>
       <c r="U546" s="12"/>
     </row>
-    <row r="547" spans="1:21">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -13136,7 +13141,7 @@
       <c r="T547" s="12"/>
       <c r="U547" s="12"/>
     </row>
-    <row r="548" spans="1:21">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -13159,7 +13164,7 @@
       <c r="T548" s="12"/>
       <c r="U548" s="12"/>
     </row>
-    <row r="549" spans="1:21">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -13182,7 +13187,7 @@
       <c r="T549" s="12"/>
       <c r="U549" s="12"/>
     </row>
-    <row r="550" spans="1:21">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -13205,7 +13210,7 @@
       <c r="T550" s="12"/>
       <c r="U550" s="12"/>
     </row>
-    <row r="551" spans="1:21">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -13228,7 +13233,7 @@
       <c r="T551" s="12"/>
       <c r="U551" s="12"/>
     </row>
-    <row r="552" spans="1:21">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -13251,7 +13256,7 @@
       <c r="T552" s="12"/>
       <c r="U552" s="12"/>
     </row>
-    <row r="553" spans="1:21">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -13274,7 +13279,7 @@
       <c r="T553" s="12"/>
       <c r="U553" s="12"/>
     </row>
-    <row r="554" spans="1:21">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -13297,7 +13302,7 @@
       <c r="T554" s="12"/>
       <c r="U554" s="12"/>
     </row>
-    <row r="555" spans="1:21">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -13320,7 +13325,7 @@
       <c r="T555" s="12"/>
       <c r="U555" s="12"/>
     </row>
-    <row r="556" spans="1:21">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -13343,7 +13348,7 @@
       <c r="T556" s="12"/>
       <c r="U556" s="12"/>
     </row>
-    <row r="557" spans="1:21">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -13366,7 +13371,7 @@
       <c r="T557" s="12"/>
       <c r="U557" s="12"/>
     </row>
-    <row r="558" spans="1:21">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -13389,7 +13394,7 @@
       <c r="T558" s="12"/>
       <c r="U558" s="12"/>
     </row>
-    <row r="559" spans="1:21">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -13412,7 +13417,7 @@
       <c r="T559" s="12"/>
       <c r="U559" s="12"/>
     </row>
-    <row r="560" spans="1:21">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -13435,7 +13440,7 @@
       <c r="T560" s="12"/>
       <c r="U560" s="12"/>
     </row>
-    <row r="561" spans="1:21">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -13458,7 +13463,7 @@
       <c r="T561" s="12"/>
       <c r="U561" s="12"/>
     </row>
-    <row r="562" spans="1:21">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -13481,7 +13486,7 @@
       <c r="T562" s="12"/>
       <c r="U562" s="12"/>
     </row>
-    <row r="563" spans="1:21">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -13504,7 +13509,7 @@
       <c r="T563" s="12"/>
       <c r="U563" s="12"/>
     </row>
-    <row r="564" spans="1:21">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -13527,7 +13532,7 @@
       <c r="T564" s="12"/>
       <c r="U564" s="12"/>
     </row>
-    <row r="565" spans="1:21">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -13550,7 +13555,7 @@
       <c r="T565" s="12"/>
       <c r="U565" s="12"/>
     </row>
-    <row r="566" spans="1:21">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -13564,7 +13569,7 @@
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
     </row>
-    <row r="567" spans="1:21">
+    <row r="567" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -13578,7 +13583,7 @@
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
-    <row r="568" spans="1:21">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -13592,7 +13597,7 @@
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
-    <row r="569" spans="1:21">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -13606,7 +13611,7 @@
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
     </row>
-    <row r="570" spans="1:21">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -13620,7 +13625,7 @@
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
     </row>
-    <row r="571" spans="1:21">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -13634,7 +13639,7 @@
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
     </row>
-    <row r="572" spans="1:21">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -13648,7 +13653,7 @@
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
     </row>
-    <row r="573" spans="1:21">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -13662,7 +13667,7 @@
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
-    <row r="574" spans="1:21">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -13676,7 +13681,7 @@
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
-    <row r="575" spans="1:21">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -13690,7 +13695,7 @@
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
-    <row r="576" spans="1:21">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -13704,7 +13709,7 @@
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
-    <row r="577" spans="1:12">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -13718,7 +13723,7 @@
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
-    <row r="578" spans="1:12">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -13732,7 +13737,7 @@
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
     </row>
-    <row r="579" spans="1:12">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -13746,7 +13751,7 @@
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
     </row>
-    <row r="580" spans="1:12">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -13760,7 +13765,7 @@
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
     </row>
-    <row r="581" spans="1:12">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -13774,7 +13779,7 @@
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
-    <row r="582" spans="1:12">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -13788,7 +13793,7 @@
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
-    <row r="583" spans="1:12">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -13802,7 +13807,7 @@
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
-    <row r="584" spans="1:12">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -13816,7 +13821,7 @@
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
-    <row r="585" spans="1:12">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -13830,7 +13835,7 @@
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
-    <row r="586" spans="1:12">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -13844,7 +13849,7 @@
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -13858,7 +13863,7 @@
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
     </row>
-    <row r="588" spans="1:12">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -13872,7 +13877,7 @@
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
     </row>
-    <row r="589" spans="1:12">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -13886,7 +13891,7 @@
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
-    <row r="590" spans="1:12">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -13900,7 +13905,7 @@
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
-    <row r="591" spans="1:12">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -13914,7 +13919,7 @@
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
-    <row r="592" spans="1:12">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -13928,7 +13933,7 @@
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
-    <row r="593" spans="1:12">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -13942,7 +13947,7 @@
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
-    <row r="594" spans="1:12">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -13956,7 +13961,7 @@
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
     </row>
-    <row r="595" spans="1:12">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -13970,7 +13975,7 @@
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
     </row>
-    <row r="596" spans="1:12">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -13984,7 +13989,7 @@
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
     </row>
-    <row r="597" spans="1:12">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -13998,7 +14003,7 @@
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
     </row>
-    <row r="598" spans="1:12">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -14012,7 +14017,7 @@
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
-    <row r="599" spans="1:12">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -14026,7 +14031,7 @@
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
-    <row r="600" spans="1:12">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -14040,7 +14045,7 @@
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
-    <row r="601" spans="1:12">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -14054,7 +14059,7 @@
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
-    <row r="602" spans="1:12">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -14068,7 +14073,7 @@
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
-    <row r="603" spans="1:12">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -14082,7 +14087,7 @@
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
     </row>
-    <row r="604" spans="1:12">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -14096,7 +14101,7 @@
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -14110,7 +14115,7 @@
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
     </row>
-    <row r="606" spans="1:12">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -14124,7 +14129,7 @@
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
     </row>
-    <row r="607" spans="1:12">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -14138,7 +14143,7 @@
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
-    <row r="608" spans="1:12">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -14152,7 +14157,7 @@
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
-    <row r="609" spans="1:12">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -14166,7 +14171,7 @@
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
-    <row r="610" spans="1:12">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
